--- a/Project2CheckOffSheet.xlsx
+++ b/Project2CheckOffSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Eastman\Desktop\C++ Projects\Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C3E85-46B1-442B-B875-1FBC3D0C4A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531BA4EC-3223-4DDC-B34C-B4BFC51016D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A5483BA-4B59-4814-B559-5AE0A8697AA5}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="D4:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project2CheckOffSheet.xlsx
+++ b/Project2CheckOffSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Eastman\Desktop\C++ Projects\Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531BA4EC-3223-4DDC-B34C-B4BFC51016D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E92F8-7B46-49A4-880F-D3C96C3C16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A5483BA-4B59-4814-B559-5AE0A8697AA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Chapter</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>Passing Vectors to and from Functions</t>
+  </si>
+  <si>
+    <t>447, 467</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>147 and 148</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
   <dimension ref="D4:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +825,9 @@
       <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>82</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="K6" s="4">
@@ -838,7 +849,9 @@
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
       <c r="H7" s="5">
         <v>5</v>
       </c>
@@ -852,7 +865,9 @@
       <c r="M7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>37</v>
+      </c>
       <c r="O7" s="5">
         <v>4</v>
       </c>
@@ -868,7 +883,9 @@
       <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>75</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
         <v>10</v>
@@ -880,7 +897,9 @@
       <c r="M8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>49</v>
+      </c>
       <c r="O8" s="5">
         <v>4</v>
       </c>
@@ -894,7 +913,9 @@
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>64</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="K9" s="8"/>
@@ -904,7 +925,9 @@
       <c r="M9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>545</v>
+      </c>
       <c r="O9" s="5">
         <v>4</v>
       </c>
@@ -920,7 +943,9 @@
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>65</v>
+      </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
@@ -932,7 +957,9 @@
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>582</v>
+      </c>
       <c r="O10" s="5">
         <v>4</v>
       </c>
@@ -946,7 +973,9 @@
       <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>72</v>
+      </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
@@ -958,7 +987,9 @@
       <c r="M11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="O11" s="10" t="s">
         <v>69</v>
       </c>
@@ -974,7 +1005,9 @@
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>74</v>
+      </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
@@ -986,7 +1019,9 @@
       <c r="M12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>146</v>
+      </c>
       <c r="O12" s="5">
         <v>4</v>
       </c>
@@ -1000,7 +1035,9 @@
       <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>64</v>
+      </c>
       <c r="H13" s="5">
         <v>1</v>
       </c>
@@ -1014,7 +1051,9 @@
       <c r="M13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>39</v>
+      </c>
       <c r="O13" s="5">
         <v>4</v>
       </c>
@@ -1028,7 +1067,9 @@
       <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>1394</v>
+      </c>
       <c r="H14" s="5">
         <v>1</v>
       </c>
@@ -1040,7 +1081,9 @@
       <c r="M14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7">
+        <v>49</v>
+      </c>
       <c r="O14" s="5">
         <v>4</v>
       </c>
@@ -1064,7 +1107,9 @@
       <c r="M15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>41</v>
+      </c>
       <c r="O15" s="5">
         <v>5</v>
       </c>
@@ -1078,7 +1123,9 @@
       <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
         <v>20</v>
@@ -1090,7 +1137,9 @@
       <c r="M16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>460</v>
+      </c>
       <c r="O16" s="5">
         <v>4</v>
       </c>
@@ -1104,7 +1153,9 @@
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="K17" s="4">
@@ -1126,7 +1177,9 @@
       <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>1406</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="K18" s="8"/>
@@ -1136,7 +1189,9 @@
       <c r="M18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>90</v>
+      </c>
       <c r="O18" s="5">
         <v>3</v>
       </c>
@@ -1150,7 +1205,9 @@
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
@@ -1164,7 +1221,9 @@
       <c r="M19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="O19" s="5">
         <v>2</v>
       </c>
@@ -1178,7 +1237,9 @@
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>387</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
         <v>26</v>
@@ -1190,7 +1251,9 @@
       <c r="M20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>37</v>
+      </c>
       <c r="O20" s="5">
         <v>2</v>
       </c>
@@ -1204,7 +1267,9 @@
       <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -1216,7 +1281,9 @@
       <c r="M21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7">
+        <v>388</v>
+      </c>
       <c r="O21" s="5">
         <v>2</v>
       </c>
@@ -1238,7 +1305,9 @@
       <c r="M22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7">
+        <v>105</v>
+      </c>
       <c r="O22" s="5">
         <v>2</v>
       </c>
@@ -1254,7 +1323,9 @@
       <c r="F23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>401</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="K23" s="8"/>
@@ -1262,7 +1333,9 @@
       <c r="M23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6">
+        <v>92</v>
+      </c>
       <c r="O23" s="5">
         <v>5</v>
       </c>
@@ -1276,7 +1349,9 @@
       <c r="F24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1796</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="K24" s="8"/>
@@ -1284,7 +1359,9 @@
       <c r="M24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6">
+        <v>109</v>
+      </c>
       <c r="O24" s="5">
         <v>5</v>
       </c>
@@ -1316,7 +1393,9 @@
       <c r="F26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="K26" s="4">
@@ -1338,7 +1417,9 @@
       <c r="F27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>1796</v>
+      </c>
       <c r="H27" s="5">
         <v>1</v>
       </c>
@@ -1350,7 +1431,9 @@
       <c r="M27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7">
+        <v>532</v>
+      </c>
       <c r="O27" s="5">
         <v>4</v>
       </c>
@@ -1364,7 +1447,9 @@
       <c r="F28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="K28" s="8"/>
@@ -1374,7 +1459,9 @@
       <c r="M28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7">
+        <v>515</v>
+      </c>
       <c r="O28" s="5">
         <v>4</v>
       </c>
@@ -1388,7 +1475,9 @@
       <c r="F29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>355</v>
+      </c>
       <c r="H29" s="5">
         <v>1</v>
       </c>
@@ -1400,7 +1489,9 @@
       <c r="M29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="7">
+        <v>477</v>
+      </c>
       <c r="O29" s="5">
         <v>4</v>
       </c>
@@ -1414,7 +1505,9 @@
       <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>174</v>
+      </c>
       <c r="H30" s="5">
         <v>1</v>
       </c>
@@ -1434,7 +1527,9 @@
       <c r="F31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>1796</v>
+      </c>
       <c r="H31" s="5">
         <v>1</v>
       </c>
@@ -1456,7 +1551,9 @@
       <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="K32" s="9" t="s">
@@ -1496,7 +1593,9 @@
       <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>1793</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
@@ -1508,7 +1607,9 @@
       <c r="F35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>2667</v>
+      </c>
       <c r="H35" s="5">
         <v>1</v>
       </c>
@@ -1524,7 +1625,9 @@
       <c r="F36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>1764</v>
+      </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
@@ -1538,7 +1641,9 @@
       <c r="F37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>2670</v>
+      </c>
       <c r="H37" s="5">
         <v>1</v>
       </c>
@@ -1552,7 +1657,9 @@
       <c r="F38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>2694</v>
+      </c>
       <c r="H38" s="5">
         <v>1</v>
       </c>
@@ -1566,7 +1673,9 @@
       <c r="F39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
@@ -1578,7 +1687,9 @@
       <c r="F40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>2492</v>
+      </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
@@ -1592,7 +1703,9 @@
       <c r="F41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>269</v>
+      </c>
       <c r="H41" s="5">
         <v>1</v>
       </c>
@@ -1606,7 +1719,9 @@
       <c r="F42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>363</v>
+      </c>
       <c r="H42" s="5">
         <v>1</v>
       </c>
@@ -1620,7 +1735,9 @@
       <c r="F43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>1524</v>
+      </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
@@ -1644,7 +1761,9 @@
       <c r="F45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>2525</v>
+      </c>
       <c r="H45" s="5">
         <v>1</v>
       </c>
@@ -1658,7 +1777,9 @@
       <c r="F46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>480</v>
+      </c>
       <c r="H46" s="5">
         <v>1</v>
       </c>
@@ -1672,7 +1793,9 @@
       <c r="F47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>630</v>
+      </c>
       <c r="H47" s="5">
         <v>1</v>
       </c>
@@ -1686,7 +1809,9 @@
       <c r="F48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>490</v>
+      </c>
       <c r="H48" s="5">
         <v>1</v>
       </c>
@@ -1700,7 +1825,9 @@
       <c r="F49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H49" s="5">
         <v>2</v>
       </c>
@@ -1714,7 +1841,9 @@
       <c r="F50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="6" t="s">
         <v>56</v>
